--- a/horarios_optimizados-882-push_gap_0.80.xlsx
+++ b/horarios_optimizados-882-push_gap_0.80.xlsx
@@ -637,21 +637,9 @@
       <c r="C6" s="4" t="inlineStr"/>
       <c r="D6" s="4" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F6" s="4" t="inlineStr"/>
+      <c r="G6" s="4" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr"/>
       <c r="I6" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -667,12 +655,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr"/>
       <c r="N6" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -730,21 +718,37 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H7" s="4" t="inlineStr"/>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -760,7 +764,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="L7" s="4" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M7" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -776,46 +784,14 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P7" s="4" t="inlineStr"/>
+      <c r="Q7" s="4" t="inlineStr"/>
+      <c r="R7" s="4" t="inlineStr"/>
+      <c r="S7" s="4" t="inlineStr"/>
+      <c r="T7" s="4" t="inlineStr"/>
+      <c r="U7" s="4" t="inlineStr"/>
+      <c r="V7" s="4" t="inlineStr"/>
+      <c r="W7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -827,9 +803,21 @@
       <c r="C8" s="4" t="inlineStr"/>
       <c r="D8" s="4" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr"/>
-      <c r="F8" s="4" t="inlineStr"/>
-      <c r="G8" s="4" t="inlineStr"/>
-      <c r="H8" s="4" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -915,21 +903,9 @@
       <c r="F9" s="4" t="inlineStr"/>
       <c r="G9" s="4" t="inlineStr"/>
       <c r="H9" s="4" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I9" s="4" t="inlineStr"/>
+      <c r="J9" s="4" t="inlineStr"/>
+      <c r="K9" s="4" t="inlineStr"/>
       <c r="L9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -997,34 +973,54 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr"/>
-      <c r="C10" s="4" t="inlineStr"/>
-      <c r="D10" s="4" t="inlineStr"/>
-      <c r="E10" s="4" t="inlineStr"/>
-      <c r="F10" s="4" t="inlineStr"/>
-      <c r="G10" s="4" t="inlineStr"/>
-      <c r="H10" s="4" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I10" s="4" t="inlineStr"/>
+      <c r="J10" s="4" t="inlineStr"/>
+      <c r="K10" s="4" t="inlineStr"/>
       <c r="L10" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="M10" s="4" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1060,21 +1056,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U10" s="4" t="inlineStr"/>
+      <c r="V10" s="4" t="inlineStr"/>
+      <c r="W10" s="4" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -1082,34 +1066,50 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr"/>
-      <c r="C11" s="4" t="inlineStr"/>
-      <c r="D11" s="4" t="inlineStr"/>
-      <c r="E11" s="4" t="inlineStr"/>
-      <c r="F11" s="4" t="inlineStr"/>
-      <c r="G11" s="4" t="inlineStr"/>
-      <c r="H11" s="4" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M11" s="4" t="inlineStr"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I11" s="4" t="inlineStr"/>
+      <c r="J11" s="4" t="inlineStr"/>
+      <c r="K11" s="4" t="inlineStr"/>
+      <c r="L11" s="4" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1239,39 +1239,55 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr"/>
-      <c r="C15" s="4" t="inlineStr"/>
-      <c r="D15" s="4" t="inlineStr"/>
-      <c r="E15" s="4" t="inlineStr"/>
-      <c r="F15" s="4" t="inlineStr"/>
-      <c r="G15" s="4" t="inlineStr"/>
-      <c r="H15" s="4" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I15" s="4" t="inlineStr"/>
+      <c r="J15" s="4" t="inlineStr"/>
+      <c r="K15" s="4" t="inlineStr"/>
+      <c r="L15" s="4" t="inlineStr"/>
       <c r="M15" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N15" s="4" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O15" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1302,21 +1318,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U15" s="4" t="inlineStr"/>
+      <c r="V15" s="4" t="inlineStr"/>
+      <c r="W15" s="4" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -1381,7 +1385,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N17" s="4" t="inlineStr"/>
+      <c r="N17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1434,45 +1442,29 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B18" s="4" t="inlineStr"/>
+      <c r="C18" s="4" t="inlineStr"/>
+      <c r="D18" s="4" t="inlineStr"/>
+      <c r="E18" s="4" t="inlineStr"/>
+      <c r="F18" s="4" t="inlineStr"/>
+      <c r="G18" s="4" t="inlineStr"/>
+      <c r="H18" s="4" t="inlineStr"/>
       <c r="I18" s="4" t="inlineStr"/>
-      <c r="J18" s="4" t="inlineStr"/>
-      <c r="K18" s="4" t="inlineStr"/>
-      <c r="L18" s="4" t="inlineStr"/>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1518,16 +1510,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="V18" s="4" t="inlineStr"/>
+      <c r="W18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -1539,10 +1523,26 @@
       <c r="C19" s="4" t="inlineStr"/>
       <c r="D19" s="4" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr"/>
-      <c r="F19" s="4" t="inlineStr"/>
-      <c r="G19" s="4" t="inlineStr"/>
-      <c r="H19" s="4" t="inlineStr"/>
-      <c r="I19" s="4" t="inlineStr"/>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1563,7 +1563,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N19" s="4" t="inlineStr"/>
+      <c r="N19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1616,7 +1620,11 @@
       <c r="C20" s="4" t="inlineStr"/>
       <c r="D20" s="4" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr"/>
-      <c r="F20" s="4" t="inlineStr"/>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1672,7 +1680,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R20" s="4" t="inlineStr"/>
+      <c r="R20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="S20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1709,21 +1721,9 @@
       <c r="C21" s="4" t="inlineStr"/>
       <c r="D21" s="4" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr"/>
+      <c r="H21" s="4" t="inlineStr"/>
       <c r="I21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1749,17 +1749,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N21" s="4" t="inlineStr"/>
+      <c r="N21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O21" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="P21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P21" s="4" t="inlineStr"/>
       <c r="Q21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1874,40 +1874,32 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H25" s="4" t="inlineStr"/>
-      <c r="I25" s="4" t="inlineStr"/>
-      <c r="J25" s="4" t="inlineStr"/>
-      <c r="K25" s="4" t="inlineStr"/>
+      <c r="B25" s="4" t="inlineStr"/>
+      <c r="C25" s="4" t="inlineStr"/>
+      <c r="D25" s="4" t="inlineStr"/>
+      <c r="E25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr"/>
+      <c r="G25" s="4" t="inlineStr"/>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1975,33 +1967,45 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr"/>
-      <c r="C26" s="4" t="inlineStr"/>
-      <c r="D26" s="4" t="inlineStr"/>
-      <c r="E26" s="4" t="inlineStr"/>
-      <c r="F26" s="4" t="inlineStr"/>
-      <c r="G26" s="4" t="inlineStr"/>
-      <c r="H26" s="4" t="inlineStr"/>
-      <c r="I26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I26" s="4" t="inlineStr"/>
+      <c r="J26" s="4" t="inlineStr"/>
+      <c r="K26" s="4" t="inlineStr"/>
+      <c r="L26" s="4" t="inlineStr"/>
       <c r="M26" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2028,31 +2032,11 @@
         </is>
       </c>
       <c r="R26" s="4" t="inlineStr"/>
-      <c r="S26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="S26" s="4" t="inlineStr"/>
+      <c r="T26" s="4" t="inlineStr"/>
+      <c r="U26" s="4" t="inlineStr"/>
+      <c r="V26" s="4" t="inlineStr"/>
+      <c r="W26" s="4" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -2089,10 +2073,26 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr"/>
-      <c r="C28" s="4" t="inlineStr"/>
-      <c r="D28" s="4" t="inlineStr"/>
-      <c r="E28" s="4" t="inlineStr"/>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2108,26 +2108,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I28" s="4" t="inlineStr"/>
+      <c r="J28" s="4" t="inlineStr"/>
+      <c r="K28" s="4" t="inlineStr"/>
+      <c r="L28" s="4" t="inlineStr"/>
       <c r="M28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2148,7 +2132,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q28" s="4" t="inlineStr"/>
+      <c r="Q28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2169,8 +2157,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V28" s="4" t="inlineStr"/>
-      <c r="W28" s="4" t="inlineStr"/>
+      <c r="V28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -2209,11 +2205,7 @@
         </is>
       </c>
       <c r="H29" s="4" t="inlineStr"/>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I29" s="4" t="inlineStr"/>
       <c r="J29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2239,7 +2231,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O29" s="4" t="inlineStr"/>
+      <c r="O29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P29" s="4" t="inlineStr"/>
       <c r="Q29" s="4" t="inlineStr"/>
       <c r="R29" s="4" t="inlineStr"/>
@@ -2256,35 +2252,35 @@
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr"/>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C30" s="4" t="inlineStr"/>
+      <c r="D30" s="4" t="inlineStr"/>
+      <c r="E30" s="4" t="inlineStr"/>
+      <c r="F30" s="4" t="inlineStr"/>
       <c r="G30" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="H30" s="4" t="inlineStr"/>
-      <c r="I30" s="4" t="inlineStr"/>
-      <c r="J30" s="4" t="inlineStr"/>
-      <c r="K30" s="4" t="inlineStr"/>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2315,11 +2311,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R30" s="4" t="inlineStr"/>
       <c r="S30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2330,8 +2322,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U30" s="4" t="inlineStr"/>
-      <c r="V30" s="4" t="inlineStr"/>
+      <c r="U30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="W30" s="4" t="inlineStr"/>
     </row>
     <row r="31">
@@ -2384,17 +2384,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N31" s="4" t="inlineStr"/>
       <c r="O31" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="P31" s="4" t="inlineStr"/>
+      <c r="P31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2509,30 +2509,30 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr"/>
-      <c r="C35" s="4" t="inlineStr"/>
-      <c r="D35" s="4" t="inlineStr"/>
-      <c r="E35" s="4" t="inlineStr"/>
-      <c r="F35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr"/>
+      <c r="G35" s="4" t="inlineStr"/>
+      <c r="H35" s="4" t="inlineStr"/>
+      <c r="I35" s="4" t="inlineStr"/>
       <c r="J35" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2588,9 +2588,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U35" s="4" t="inlineStr"/>
-      <c r="V35" s="4" t="inlineStr"/>
-      <c r="W35" s="4" t="inlineStr"/>
+      <c r="U35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -2598,33 +2610,13 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B36" s="4" t="inlineStr"/>
+      <c r="C36" s="4" t="inlineStr"/>
+      <c r="D36" s="4" t="inlineStr"/>
+      <c r="E36" s="4" t="inlineStr"/>
       <c r="F36" s="4" t="inlineStr"/>
       <c r="G36" s="4" t="inlineStr"/>
-      <c r="H36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H36" s="4" t="inlineStr"/>
       <c r="I36" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2645,11 +2637,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M36" s="4" t="inlineStr"/>
       <c r="N36" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2665,13 +2653,41 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q36" s="4" t="inlineStr"/>
-      <c r="R36" s="4" t="inlineStr"/>
-      <c r="S36" s="4" t="inlineStr"/>
-      <c r="T36" s="4" t="inlineStr"/>
-      <c r="U36" s="4" t="inlineStr"/>
-      <c r="V36" s="4" t="inlineStr"/>
-      <c r="W36" s="4" t="inlineStr"/>
+      <c r="Q36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -2679,33 +2695,17 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B37" s="4" t="inlineStr"/>
+      <c r="C37" s="4" t="inlineStr"/>
+      <c r="D37" s="4" t="inlineStr"/>
+      <c r="E37" s="4" t="inlineStr"/>
+      <c r="F37" s="4" t="inlineStr"/>
       <c r="G37" s="4" t="inlineStr"/>
-      <c r="H37" s="4" t="inlineStr"/>
+      <c r="H37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I37" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2731,24 +2731,52 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N37" s="4" t="inlineStr"/>
       <c r="O37" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="P37" s="4" t="inlineStr"/>
-      <c r="Q37" s="4" t="inlineStr"/>
-      <c r="R37" s="4" t="inlineStr"/>
-      <c r="S37" s="4" t="inlineStr"/>
-      <c r="T37" s="4" t="inlineStr"/>
-      <c r="U37" s="4" t="inlineStr"/>
-      <c r="V37" s="4" t="inlineStr"/>
-      <c r="W37" s="4" t="inlineStr"/>
+      <c r="P37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -2789,36 +2817,12 @@
       <c r="C39" s="4" t="inlineStr"/>
       <c r="D39" s="4" t="inlineStr"/>
       <c r="E39" s="4" t="inlineStr"/>
-      <c r="F39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F39" s="4" t="inlineStr"/>
+      <c r="G39" s="4" t="inlineStr"/>
+      <c r="H39" s="4" t="inlineStr"/>
+      <c r="I39" s="4" t="inlineStr"/>
+      <c r="J39" s="4" t="inlineStr"/>
+      <c r="K39" s="4" t="inlineStr"/>
       <c r="L39" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2829,7 +2833,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N39" s="4" t="inlineStr"/>
+      <c r="N39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O39" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2882,21 +2890,9 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B40" s="4" t="inlineStr"/>
+      <c r="C40" s="4" t="inlineStr"/>
+      <c r="D40" s="4" t="inlineStr"/>
       <c r="E40" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2920,7 +2916,11 @@
       <c r="I40" s="4" t="inlineStr"/>
       <c r="J40" s="4" t="inlineStr"/>
       <c r="K40" s="4" t="inlineStr"/>
-      <c r="L40" s="4" t="inlineStr"/>
+      <c r="L40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M40" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2971,7 +2971,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W40" s="4" t="inlineStr"/>
+      <c r="W40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -2979,26 +2983,10 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B41" s="4" t="inlineStr"/>
+      <c r="C41" s="4" t="inlineStr"/>
+      <c r="D41" s="4" t="inlineStr"/>
+      <c r="E41" s="4" t="inlineStr"/>
       <c r="F41" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3014,15 +3002,27 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I41" s="4" t="inlineStr"/>
-      <c r="J41" s="4" t="inlineStr"/>
-      <c r="K41" s="4" t="inlineStr"/>
-      <c r="L41" s="4" t="inlineStr"/>
-      <c r="M41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M41" s="4" t="inlineStr"/>
       <c r="N41" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3191,17 +3191,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
         <v>0.5</v>
@@ -3234,26 +3234,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="I4" t="n">
         <v>0.5</v>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="I5" t="n">
         <v>0.5</v>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -3353,29 +3353,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
@@ -3396,29 +3396,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -3439,29 +3439,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -3516,27 +3516,17 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3556,30 +3546,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3599,30 +3579,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>20:30</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.5</v>
-      </c>
+        <v>8.5</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3642,30 +3612,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.5</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3685,17 +3645,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3704,7 +3664,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
         <v>0.5</v>
@@ -3728,30 +3688,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3771,29 +3721,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -3845,29 +3795,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -3898,19 +3848,19 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -3931,29 +3881,29 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
@@ -3979,12 +3929,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -4017,20 +3967,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4050,29 +4010,29 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
@@ -4093,29 +4053,29 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
@@ -4167,30 +4127,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4210,7 +4160,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -4220,19 +4170,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="29">
@@ -4253,17 +4203,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -4272,10 +4222,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
